--- a/UseCase/Descrição UseCases/EscolherEspecificacoes.xlsx
+++ b/UseCase/Descrição UseCases/EscolherEspecificacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09009556-2366-4353-BCB5-3F59FF17292A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4672671-E0B9-4171-8033-50C99504335C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Actor input</t>
   </si>
@@ -73,9 +73,6 @@
     <t>6. Regista no sistema e adiciona a fila de espera</t>
   </si>
   <si>
-    <t>[Alternativo 1]</t>
-  </si>
-  <si>
     <t>5. Confirma</t>
   </si>
   <si>
@@ -83,6 +80,18 @@
   </si>
   <si>
     <t>5.2 Volta para 2</t>
+  </si>
+  <si>
+    <t>Alternativa 1 [Não confirma a compra] (passo 5)</t>
+  </si>
+  <si>
+    <t>Alternativa 2 [Peças Incompativeis] (passo 3)</t>
+  </si>
+  <si>
+    <t>3.2 Informa que escolheu peças incompativeis, e quais são</t>
+  </si>
+  <si>
+    <t>Regressa a 3</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -277,11 +286,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -296,9 +342,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +360,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
-  <dimension ref="B1:D19"/>
+  <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,38 +713,38 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -692,90 +755,118 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>15</v>
+    <row r="17" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
+    <row r="18" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
     </row>
+    <row r="20" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="19"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>

--- a/UseCase/Descrição UseCases/EscolherEspecificacoes.xlsx
+++ b/UseCase/Descrição UseCases/EscolherEspecificacoes.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\UseCase\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4672671-E0B9-4171-8033-50C99504335C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Actor input</t>
   </si>
@@ -64,40 +63,49 @@
     <t>2.Mostra opções</t>
   </si>
   <si>
-    <t>3. Escolhe especificação</t>
-  </si>
-  <si>
-    <t>4. Envia mensagem a confirmar o carro que pretende comprar</t>
-  </si>
-  <si>
-    <t>6. Regista no sistema e adiciona a fila de espera</t>
-  </si>
-  <si>
-    <t>5. Confirma</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1 Não confirma </t>
   </si>
   <si>
-    <t>5.2 Volta para 2</t>
-  </si>
-  <si>
-    <t>Alternativa 1 [Não confirma a compra] (passo 5)</t>
-  </si>
-  <si>
-    <t>Alternativa 2 [Peças Incompativeis] (passo 3)</t>
-  </si>
-  <si>
-    <t>3.2 Informa que escolheu peças incompativeis, e quais são</t>
-  </si>
-  <si>
-    <t>Regressa a 3</t>
+    <t>3. Seleciona personalizar especificações</t>
+  </si>
+  <si>
+    <t>4. Escolhe especificações</t>
+  </si>
+  <si>
+    <t>5. Regista especificações</t>
+  </si>
+  <si>
+    <t>6. Verifica especificações</t>
+  </si>
+  <si>
+    <t>7. Pergunta se pretende confirmar</t>
+  </si>
+  <si>
+    <t>9. Regista no sistema e adiciona a fila de espera</t>
+  </si>
+  <si>
+    <t>8. Confirma</t>
+  </si>
+  <si>
+    <t>Alternativa 2 [Não confirma a compra] (passo 8)</t>
+  </si>
+  <si>
+    <t>Alternativa 1 [Peças Incompativeis] (passo 4)</t>
+  </si>
+  <si>
+    <t>4.2 Informa que escolheu peças incompativeis e/ou peças em falta</t>
+  </si>
+  <si>
+    <t>4.1 Verifica que especificações não estão corretas</t>
+  </si>
+  <si>
+    <t>Regressa a 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -327,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -342,6 +350,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,26 +385,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,11 +700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,38 +720,38 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -755,114 +762,122 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="15"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" s="23" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="23" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="23" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24" t="s">
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="2:4" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="23" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="15"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
+      <c r="B24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
